--- a/public/template/excel/SFXC_Voter_Template.xlsx
+++ b/public/template/excel/SFXC_Voter_Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/66dd48d276a8cf2b/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/66dd48d276a8cf2b/Desktop/Website/Laravel/laravel-voting-system/public/template/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{1FC9914B-3AD7-4005-8F39-1E4AD0B6D460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB99E6A9-0B4E-4D55-9262-E3C43FBE30F4}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{1FC9914B-3AD7-4005-8F39-1E4AD0B6D460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21695311-747F-409B-8C2E-A95EA9F82CE7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{584558DE-857D-4593-9A86-51904C51A430}"/>
   </bookViews>
@@ -25,12 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>name</t>
   </si>
   <si>
     <t>email</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>program</t>
+  </si>
+  <si>
+    <t>year</t>
   </si>
 </sst>
 </file>
@@ -400,13 +409,16 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -416,9 +428,15 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
